--- a/auto_http_api/report.xlsx
+++ b/auto_http_api/report.xlsx
@@ -59,7 +59,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>0.03m</t>
+    <t>0.04m</t>
   </si>
   <si>
     <t>f</t>
